--- a/data/hotels_by_city/Houston/Houston_shard_522.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_522.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55643-d1728164-Reviews-Quality_Inn-Clute_Texas.html</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,627 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r523132812-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>1728164</t>
+  </si>
+  <si>
+    <t>523132812</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Quality inn Clute tx</t>
+  </si>
+  <si>
+    <t>I was displaced by hurricane Harvey. Checked in for $69. and no tax due to being a hurricane refugee. 3 days later they told me ( different clerk) I had to pay a higher fee and had no tax exemption. When I explained what the terms we when I inn checked in, they had no record of it and would need to give them my credit card to get my things from my room. All I got was condescending arrogant politeness.I would not recommend this hotel.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r474245702-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>474245702</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Smelly</t>
+  </si>
+  <si>
+    <t>Ok, so for $120 for 2 queen beds, I gotta believe there is something a little better. There are several hotels around this one. I need to do better research. The place stunk.. can't tell if it was mold or the a/c was creating the smell but it was bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Ok, so for $120 for 2 queen beds, I gotta believe there is something a little better. There are several hotels around this one. I need to do better research. The place stunk.. can't tell if it was mold or the a/c was creating the smell but it was bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r465687458-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>465687458</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor management </t>
+  </si>
+  <si>
+    <t>Let me start with the fact that the room and staff, not only met but exceeded my expectations. This is a fine establishment. That being said the management needs to have their attitude adjusted. I reserved a room at 5pm the day before arrival, by 2pm the following day plans with my job had changed, so I called to cancel my room. Check was at 3pm so I figured this shouldn't be a problem. I was told by the front desk that I could only cancel with 24hrs notice. So I asked to speak with a manager. The manager (who didn't bother telling me her name, but this occurred on 3/8/17 at around 2pm) proceeded to tell about how this was every hotels policy and there's there's nothing that can be done. I explained that the room was booked less than 24hrs ago and asked if there was anything that could be done to resolve this. I also stated that I've stayed with numerous hotels that willing to forgive the fee if the room is canceled before check in. Then she got snotty stating that she's never heard of such things and all the hotels in this area have the same policy. There were some other words exchanged but it boiled down to, I was stuck paying for a room, and they were willing to lose a pretty frequent customer for a measly $80.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Let me start with the fact that the room and staff, not only met but exceeded my expectations. This is a fine establishment. That being said the management needs to have their attitude adjusted. I reserved a room at 5pm the day before arrival, by 2pm the following day plans with my job had changed, so I called to cancel my room. Check was at 3pm so I figured this shouldn't be a problem. I was told by the front desk that I could only cancel with 24hrs notice. So I asked to speak with a manager. The manager (who didn't bother telling me her name, but this occurred on 3/8/17 at around 2pm) proceeded to tell about how this was every hotels policy and there's there's nothing that can be done. I explained that the room was booked less than 24hrs ago and asked if there was anything that could be done to resolve this. I also stated that I've stayed with numerous hotels that willing to forgive the fee if the room is canceled before check in. Then she got snotty stating that she's never heard of such things and all the hotels in this area have the same policy. There were some other words exchanged but it boiled down to, I was stuck paying for a room, and they were willing to lose a pretty frequent customer for a measly $80.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r422169709-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>422169709</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Renovated property</t>
+  </si>
+  <si>
+    <t>I have stayed here twice in the last 4 months for extended stays each time.  The rate is fair and the rooms were acceptable to good.  The breakfast includes meat!  Some of the others do not.  The housekeeping staff are excellent. The Internet is fine if you can get connected.  I had to call the provider to get connected twice on the last stay.  The problem was quickly resolved.  I have business in the area and plan to return in October for another stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here twice in the last 4 months for extended stays each time.  The rate is fair and the rooms were acceptable to good.  The breakfast includes meat!  Some of the others do not.  The housekeeping staff are excellent. The Internet is fine if you can get connected.  I had to call the provider to get connected twice on the last stay.  The problem was quickly resolved.  I have business in the area and plan to return in October for another stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r374676059-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>374676059</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>worst of the barely ok</t>
+  </si>
+  <si>
+    <t>Stayed here more than once on several trips.  Never again.  I asked for a room on the ground and, knowing the place, quiet in the back.  All good.  When I got there all they gave me was second floor in the front (on the highway with the sirens and race cars).  Then when I complained and made other arrangements they charged for a nights stay instead of honoring their commitment to a regular customer.  There were only two or three rooms worth staying in if you like a quiet and reasonably clean room.  The rest are loud, musty and not so clean.  One room was so bad I didn't want to sit in the chair.  Forget breakfast unless you like the artificial eggs and Costco sweet rolls.  I skipped usually and went down the road to McDonalds for real food.   Stay in Angleton.  A little higher priced but worth it.  This hotel is only for weekly workers at the chemical plants.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here more than once on several trips.  Never again.  I asked for a room on the ground and, knowing the place, quiet in the back.  All good.  When I got there all they gave me was second floor in the front (on the highway with the sirens and race cars).  Then when I complained and made other arrangements they charged for a nights stay instead of honoring their commitment to a regular customer.  There were only two or three rooms worth staying in if you like a quiet and reasonably clean room.  The rest are loud, musty and not so clean.  One room was so bad I didn't want to sit in the chair.  Forget breakfast unless you like the artificial eggs and Costco sweet rolls.  I skipped usually and went down the road to McDonalds for real food.   Stay in Angleton.  A little higher priced but worth it.  This hotel is only for weekly workers at the chemical plants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r372392380-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>372392380</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Room was ok for the price. Room was quite musty, (Ground Floor).This region is typically a Humid area at the time I visited.  Will get more so in the summer. Services were ok, management was nice. No issues to report.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Room was ok for the price. Room was quite musty, (Ground Floor).This region is typically a Humid area at the time I visited.  Will get more so in the summer. Services were ok, management was nice. No issues to report.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r366844487-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>366844487</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t>This hotel is old and smells horrible! My daughter was gaging because of the smell.The walls and light switches were very dirty. The curtains were dirty as well.The towels were dingy and stained. We will never stay here again!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r363351387-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>363351387</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>If you like mold this is your place</t>
+  </si>
+  <si>
+    <t>Cons:My husband and I spent two nights there. I don't know if all the rooms smell this bad, but there was mold on the curtains and the place reeked of mold. The best I could do was grab a washcloth and spray it with perfume and stick it in the air conditioner to help with the smell. The carpet looked filthy, could use a quick cleaning I think.Pros:The staff at the front desk was very nice and helpful. We did not bother to complain as the place was booked solid. The bed was pretty comfortable and the bathroom and vanity area were clean. I don't think we would stay there again, and we travel to that area frequently.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Cons:My husband and I spent two nights there. I don't know if all the rooms smell this bad, but there was mold on the curtains and the place reeked of mold. The best I could do was grab a washcloth and spray it with perfume and stick it in the air conditioner to help with the smell. The carpet looked filthy, could use a quick cleaning I think.Pros:The staff at the front desk was very nice and helpful. We did not bother to complain as the place was booked solid. The bed was pretty comfortable and the bathroom and vanity area were clean. I don't think we would stay there again, and we travel to that area frequently.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r345313587-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>345313587</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>Spacious rooms and well lit exterior</t>
+  </si>
+  <si>
+    <t>I would give this a good rating, so 3 and a half stars which is not an a option on tripa.
+The booking process is easy and you will get an email confirmation right away.  I actually called in to book cause I had several questions and so I just ended up booking w the rep. Her name is kim w.  She was friendly and really listened to our needs.  I had kayaks w me and asked for a room that I can look out and see them. She did just that for us.  We stayed on the back side away from the freeway. At first I thought the front side waa better but one rep  told me it can get noisy.   The front is very brightly lit compared to the other hotels.
+Rooms were much bigger than i expected. There is ample walking space between the foot of the bed and the wall.  The bed was fine.   The pull out sofa was actually in newer condition than what I expected.  When I pulled out the mattress,   there were crumbs still there. That was one negative. Another negative were the old face towels. They were not white but dark off white and worn looking.  One of them had a brown spot.  Really ? Just throw it away.  I didn't mention it to the front which I wish I would and I'm sure they would apologize.  I got a survey via...I would give this a good rating, so 3 and a half stars which is not an a option on tripa.The booking process is easy and you will get an email confirmation right away.  I actually called in to book cause I had several questions and so I just ended up booking w the rep. Her name is kim w.  She was friendly and really listened to our needs.  I had kayaks w me and asked for a room that I can look out and see them. She did just that for us.  We stayed on the back side away from the freeway. At first I thought the front side waa better but one rep  told me it can get noisy.   The front is very brightly lit compared to the other hotels.Rooms were much bigger than i expected. There is ample walking space between the foot of the bed and the wall.  The bed was fine.   The pull out sofa was actually in newer condition than what I expected.  When I pulled out the mattress,   there were crumbs still there. That was one negative. Another negative were the old face towels. They were not white but dark off white and worn looking.  One of them had a brown spot.  Really ? Just throw it away.  I didn't mention it to the front which I wish I would and I'm sure they would apologize.  I got a survey via email after a few days so they do care of our feedback. The toilet was clean but again had several spots in them .. not sure if it's what you b think it is but it was tiny but after a few flushes they were gone.  I wish they cleaned it really well the first time. I did not see any roaches or bugs so that's good.  Breakfast was ok. Actually had hot sausages and egg patties. Looks like made from egg carton but didn't look to o bad.  Basic stuff and waffle maker.   The breakfast lady had on a regular shirt and I would recommend she wear a quality inn logo shirt . Would just be so much more professional. She was very nice though and made sure we had enough to eat. Overall just a few little negatives but the price , service, and room size was great so I would recommend.  Oh their breakfast area was a nice size and they also have a tv room which was nice and roomy. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>I would give this a good rating, so 3 and a half stars which is not an a option on tripa.
+The booking process is easy and you will get an email confirmation right away.  I actually called in to book cause I had several questions and so I just ended up booking w the rep. Her name is kim w.  She was friendly and really listened to our needs.  I had kayaks w me and asked for a room that I can look out and see them. She did just that for us.  We stayed on the back side away from the freeway. At first I thought the front side waa better but one rep  told me it can get noisy.   The front is very brightly lit compared to the other hotels.
+Rooms were much bigger than i expected. There is ample walking space between the foot of the bed and the wall.  The bed was fine.   The pull out sofa was actually in newer condition than what I expected.  When I pulled out the mattress,   there were crumbs still there. That was one negative. Another negative were the old face towels. They were not white but dark off white and worn looking.  One of them had a brown spot.  Really ? Just throw it away.  I didn't mention it to the front which I wish I would and I'm sure they would apologize.  I got a survey via...I would give this a good rating, so 3 and a half stars which is not an a option on tripa.The booking process is easy and you will get an email confirmation right away.  I actually called in to book cause I had several questions and so I just ended up booking w the rep. Her name is kim w.  She was friendly and really listened to our needs.  I had kayaks w me and asked for a room that I can look out and see them. She did just that for us.  We stayed on the back side away from the freeway. At first I thought the front side waa better but one rep  told me it can get noisy.   The front is very brightly lit compared to the other hotels.Rooms were much bigger than i expected. There is ample walking space between the foot of the bed and the wall.  The bed was fine.   The pull out sofa was actually in newer condition than what I expected.  When I pulled out the mattress,   there were crumbs still there. That was one negative. Another negative were the old face towels. They were not white but dark off white and worn looking.  One of them had a brown spot.  Really ? Just throw it away.  I didn't mention it to the front which I wish I would and I'm sure they would apologize.  I got a survey via email after a few days so they do care of our feedback. The toilet was clean but again had several spots in them .. not sure if it's what you b think it is but it was tiny but after a few flushes they were gone.  I wish they cleaned it really well the first time. I did not see any roaches or bugs so that's good.  Breakfast was ok. Actually had hot sausages and egg patties. Looks like made from egg carton but didn't look to o bad.  Basic stuff and waffle maker.   The breakfast lady had on a regular shirt and I would recommend she wear a quality inn logo shirt . Would just be so much more professional. She was very nice though and made sure we had enough to eat. Overall just a few little negatives but the price , service, and room size was great so I would recommend.  Oh their breakfast area was a nice size and they also have a tv room which was nice and roomy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r336631748-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>336631748</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>This hotel is nothing fancy, but our room was clean, the bed was comfortable and the breakfast was good.  If you are in need of a bed, this is a good place to stay.  $40 cheaper than others in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded January 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is nothing fancy, but our room was clean, the bed was comfortable and the breakfast was good.  If you are in need of a bed, this is a good place to stay.  $40 cheaper than others in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r334812861-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>334812861</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t>Good place for a night.</t>
+  </si>
+  <si>
+    <t>Everything was nice. Friendly staff. Clean room. An "OK" breakfast. Only thing I would personally change is the color of the hotel on the exterior. Although they grey isn't very inviting, I recommend staying here. Price with tax: $86.42(We paid that in early Dec. Price may have changed)MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Everything was nice. Friendly staff. Clean room. An "OK" breakfast. Only thing I would personally change is the color of the hotel on the exterior. Although they grey isn't very inviting, I recommend staying here. Price with tax: $86.42(We paid that in early Dec. Price may have changed)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r326381320-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>326381320</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, comfortable, somewhat affordable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here a few nights on a trip to Freeport to see a friend. The town in general is sleepy and sadly...a little trashy. Overall, the positives are: Room and hotel lobby was clean;The bed was comfortable;The complimentary breakfast was good. The downsides are: Spotty wifi in some rooms (we were in 3 different rooms at no fault of the hotel);Doors slamming because the doors are not adjusted to close slowly. The water from the faucets and used in the complimentary breakfast is terrible! The owners should make the small investment and get a filtration system. At minimum, the breakfast area should have filtered water. </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r287025982-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>287025982</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Great Experience - I would recommend</t>
+  </si>
+  <si>
+    <t>Two summer nights at the Quality Inn in Clute and we were pleased.  Room was clean, breakfast enhanced the value being bountiful; as well as constantly maintained by a friendly staff member, air conditioner was cold, pool was clean, bed was comfortable.  No complaints - I would recommend the Quality Inn in Clute.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Two summer nights at the Quality Inn in Clute and we were pleased.  Room was clean, breakfast enhanced the value being bountiful; as well as constantly maintained by a friendly staff member, air conditioner was cold, pool was clean, bed was comfortable.  No complaints - I would recommend the Quality Inn in Clute.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r278798790-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>278798790</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>Stayed at the Quality during a fishing trip to the coast.  Room was really nice and clean.  Everything worked and was in good repair.  We had a great stay.  Because of the new road, they lost a lot of parking in front and it's pretty loud outside.  However, inside our room at the front of the hotel, the road noise was not noticeable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at the Quality during a fishing trip to the coast.  Room was really nice and clean.  Everything worked and was in good repair.  We had a great stay.  Because of the new road, they lost a lot of parking in front and it's pretty loud outside.  However, inside our room at the front of the hotel, the road noise was not noticeable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r274913669-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>274913669</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>Our room had black mold in the toilet area as well as fecal matter left behind from an apparent overflowed toilet. The room felt damp and soggy and air never got cold. The breakfast was good and the staff very nice. The bed was awful and the comforter had stains on it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Quality Inn, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Our room had black mold in the toilet area as well as fecal matter left behind from an apparent overflowed toilet. The room felt damp and soggy and air never got cold. The breakfast was good and the staff very nice. The bed was awful and the comforter had stains on it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r192711692-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>192711692</t>
+  </si>
+  <si>
+    <t>01/31/2014</t>
+  </si>
+  <si>
+    <t>bad news</t>
+  </si>
+  <si>
+    <t>The place is not only under construction with gear all over the place. The noise from the highway is so loud you cannot stand outside and make a telephone call, the internet routers go in and out frequently and the breakfast is bare basic and boring, very boring.  The front desk offers no help with the internet routers.Other than the fact that they are going through a remodel to improve the appearance of this place, I would strongly avoid this place until they finish it and get their business running like a hotel should. To make matters worse I am Platinum with Choice and this notice will go to them as well for booking me in a hotel under construction with this many problems. And the pool looks fine but it is closed for construction real bummerMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2014</t>
+  </si>
+  <si>
+    <t>The place is not only under construction with gear all over the place. The noise from the highway is so loud you cannot stand outside and make a telephone call, the internet routers go in and out frequently and the breakfast is bare basic and boring, very boring.  The front desk offers no help with the internet routers.Other than the fact that they are going through a remodel to improve the appearance of this place, I would strongly avoid this place until they finish it and get their business running like a hotel should. To make matters worse I am Platinum with Choice and this notice will go to them as well for booking me in a hotel under construction with this many problems. And the pool looks fine but it is closed for construction real bummerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r184287165-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>184287165</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>nice room for the price</t>
+  </si>
+  <si>
+    <t>We booked this room for the weekend of the Lone Star Bike rally in Galveston.  Room was clean but  window faced the main road and the noise from the road was a bit more than some other hotels we have stayed at.  Breakfast was free but a bit sparse.  They served these round looking things that turned out to be eggs.  Odd but OK to eat.  Nothing fancy but adequate for the price.  The woman behind the counter at check in was very friendly and gave us some tips on dining out nearby...not part of her job but appreciated.  Bad news was that we parked our bikes along the sea wall and the meter maid busted us and about 1000 other parked bikes with $17 parking tickets.  How poor is that?Michael from East TexasMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>We booked this room for the weekend of the Lone Star Bike rally in Galveston.  Room was clean but  window faced the main road and the noise from the road was a bit more than some other hotels we have stayed at.  Breakfast was free but a bit sparse.  They served these round looking things that turned out to be eggs.  Odd but OK to eat.  Nothing fancy but adequate for the price.  The woman behind the counter at check in was very friendly and gave us some tips on dining out nearby...not part of her job but appreciated.  Bad news was that we parked our bikes along the sea wall and the meter maid busted us and about 1000 other parked bikes with $17 parking tickets.  How poor is that?Michael from East TexasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r182769305-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>182769305</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>BEDBUGS!</t>
+  </si>
+  <si>
+    <t>During a recent stay at this hotel, I received about 50 bedbug bites. Showed bites to desk clerk, who stated that manager was not available, but that he would call me. He did not call. Even after receiving a diagnosis confirmation from my M.D., manager refused refund, stating that it could not have happened in his hotel. (His hotel was the only place I stayed.)  The manager has been unprofessional and untruthful.  I won't ever stay in another Quality Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2013</t>
+  </si>
+  <si>
+    <t>During a recent stay at this hotel, I received about 50 bedbug bites. Showed bites to desk clerk, who stated that manager was not available, but that he would call me. He did not call. Even after receiving a diagnosis confirmation from my M.D., manager refused refund, stating that it could not have happened in his hotel. (His hotel was the only place I stayed.)  The manager has been unprofessional and untruthful.  I won't ever stay in another Quality Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r152487288-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>152487288</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>The hotel looked new from the outside and reasonably priced, but I did not expect the intensity of the road noise from 288 to be so intense that it was hard to sleep, all night.  I had to put my shoulder into the door to get it to open every time; the initial impression was not the best.Room was okay, spacious, and reasonably priced, but if you still have decent hearing, bring good ear plugs.  Won't stay at any of the motels with doors facing 288.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r137893127-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>137893127</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>One of my best inexpensive stays</t>
+  </si>
+  <si>
+    <t>The room was spotless, the bed was comfortable, the pillows were VERY soft.  Good water pressure, microwave, mini fridge, iron, coffee pot, free wifi, modern flat panel TV, good A/C, very quiet.  Overall very impressed with the room for the price.  My biggest complaint was the wifi... yeah they have free wifi, but it was the slowest most unstable connection I've ever had.  It takes over a full minute to initially "authenticate" you when you use it.  Once connected it was painfully slow. I was able to connect to Best Western's wifi (right next door) without any trouble.  Aside from that, I had no trouble.  Someone else joking commented on the view of the chemical plant.. and yes, the view from the front of the building is a chemical plant.. but that place lights up like a christmas tree at night and it actually looks pretty neat.  The town is built around a chemical plant, what do you expect?I will be staying here again if the opportunity presents itself.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>The room was spotless, the bed was comfortable, the pillows were VERY soft.  Good water pressure, microwave, mini fridge, iron, coffee pot, free wifi, modern flat panel TV, good A/C, very quiet.  Overall very impressed with the room for the price.  My biggest complaint was the wifi... yeah they have free wifi, but it was the slowest most unstable connection I've ever had.  It takes over a full minute to initially "authenticate" you when you use it.  Once connected it was painfully slow. I was able to connect to Best Western's wifi (right next door) without any trouble.  Aside from that, I had no trouble.  Someone else joking commented on the view of the chemical plant.. and yes, the view from the front of the building is a chemical plant.. but that place lights up like a christmas tree at night and it actually looks pretty neat.  The town is built around a chemical plant, what do you expect?I will be staying here again if the opportunity presents itself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r127528891-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>127528891</t>
+  </si>
+  <si>
+    <t>04/09/2012</t>
+  </si>
+  <si>
+    <t>Charged for towels not taken</t>
+  </si>
+  <si>
+    <t>Hotel charged extra for towels they claim were missing...nothing was removed from the hotel room.  The hotel itself is nothing to speak of and is a way overpriced motel.  Do yourself a favor and find something else.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r120384447-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>120384447</t>
+  </si>
+  <si>
+    <t>11/09/2011</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>We stayed one night on our way home from Galveston.  The hotel was clean and our room was in good condition.  Will stay here again.  Easy access from freeway.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r118540273-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>118540273</t>
+  </si>
+  <si>
+    <t>09/24/2011</t>
+  </si>
+  <si>
+    <t>Not a good experience</t>
+  </si>
+  <si>
+    <t>This had to be one of the most horrible experiences I have ever had at a hotel. Not only does it have a fabulous view of the chemical plant, it began badly with the person at the front desk saying that there would be an extra charge for a crib.  As we wrestled our way into the room due to something being wrong with the door lock, I read in the hotel information that cribs were complimentary.  The room was so dank and dark that we decided just to use our own pac-n-play and not even try what they had to offer.  I took the kids to the pool, where after 10 minutes I had to go back to the room and put my clothes over my bathing suit, due to the line of motorcycle gang members (there must have been a convention for banditos that weekend) ogling me from the balcony above.  The hotel also did not provide pool towels-we had to sign 4 out at the front desk and were told we would be charged if they were not accounted for the next morning.  We promptly returned them to the front desk as soon as we could.  Went back to the room soon after.  
+The entire night was filled with sounds from motorcycles arriving and leaving-the motorcycle owners actually drove them up to the door and parked them right in front of their door.  The next morning we...This had to be one of the most horrible experiences I have ever had at a hotel. Not only does it have a fabulous view of the chemical plant, it began badly with the person at the front desk saying that there would be an extra charge for a crib.  As we wrestled our way into the room due to something being wrong with the door lock, I read in the hotel information that cribs were complimentary.  The room was so dank and dark that we decided just to use our own pac-n-play and not even try what they had to offer.  I took the kids to the pool, where after 10 minutes I had to go back to the room and put my clothes over my bathing suit, due to the line of motorcycle gang members (there must have been a convention for banditos that weekend) ogling me from the balcony above.  The hotel also did not provide pool towels-we had to sign 4 out at the front desk and were told we would be charged if they were not accounted for the next morning.  We promptly returned them to the front desk as soon as we could.  Went back to the room soon after.  The entire night was filled with sounds from motorcycles arriving and leaving-the motorcycle owners actually drove them up to the door and parked them right in front of their door.  The next morning we tried to make a quick getaway and went to pick up some breakfast for the drive home.  I took my 2 year old toddler with me and was greeted to a racist comment from the person who apparently made the crappy breakfast.  All in all, I will never,ever go back to a 'quality' inn or Clute, TX.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>This had to be one of the most horrible experiences I have ever had at a hotel. Not only does it have a fabulous view of the chemical plant, it began badly with the person at the front desk saying that there would be an extra charge for a crib.  As we wrestled our way into the room due to something being wrong with the door lock, I read in the hotel information that cribs were complimentary.  The room was so dank and dark that we decided just to use our own pac-n-play and not even try what they had to offer.  I took the kids to the pool, where after 10 minutes I had to go back to the room and put my clothes over my bathing suit, due to the line of motorcycle gang members (there must have been a convention for banditos that weekend) ogling me from the balcony above.  The hotel also did not provide pool towels-we had to sign 4 out at the front desk and were told we would be charged if they were not accounted for the next morning.  We promptly returned them to the front desk as soon as we could.  Went back to the room soon after.  
+The entire night was filled with sounds from motorcycles arriving and leaving-the motorcycle owners actually drove them up to the door and parked them right in front of their door.  The next morning we...This had to be one of the most horrible experiences I have ever had at a hotel. Not only does it have a fabulous view of the chemical plant, it began badly with the person at the front desk saying that there would be an extra charge for a crib.  As we wrestled our way into the room due to something being wrong with the door lock, I read in the hotel information that cribs were complimentary.  The room was so dank and dark that we decided just to use our own pac-n-play and not even try what they had to offer.  I took the kids to the pool, where after 10 minutes I had to go back to the room and put my clothes over my bathing suit, due to the line of motorcycle gang members (there must have been a convention for banditos that weekend) ogling me from the balcony above.  The hotel also did not provide pool towels-we had to sign 4 out at the front desk and were told we would be charged if they were not accounted for the next morning.  We promptly returned them to the front desk as soon as we could.  Went back to the room soon after.  The entire night was filled with sounds from motorcycles arriving and leaving-the motorcycle owners actually drove them up to the door and parked them right in front of their door.  The next morning we tried to make a quick getaway and went to pick up some breakfast for the drive home.  I took my 2 year old toddler with me and was greeted to a racist comment from the person who apparently made the crappy breakfast.  All in all, I will never,ever go back to a 'quality' inn or Clute, TX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r114572591-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>114572591</t>
+  </si>
+  <si>
+    <t>06/20/2011</t>
+  </si>
+  <si>
+    <t>No complaints whatsoever!</t>
+  </si>
+  <si>
+    <t>Everything new and clean.  Staff most helpful and friendly.  Breakfast consistent with other Choice properties.  Appreciated new spotless linens that did not smell of bleach!!!!  We will be back next year for sure.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r64445532-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>64445532</t>
+  </si>
+  <si>
+    <t>05/17/2010</t>
+  </si>
+  <si>
+    <t>Great room @ great price!!</t>
+  </si>
+  <si>
+    <t>Newly remodeled.  Everything perfect.  Excellent pillow top mattress.   Good TV, Hot water, clean crisp sheets.  Friendly staff.  I come to this city once a year and this will be my first choice from now on.   King bed room at senior Rate was only $58.00.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r60991984-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>60991984</t>
+  </si>
+  <si>
+    <t>04/11/2010</t>
+  </si>
+  <si>
+    <t>Terrific Deal - Great Hotel</t>
+  </si>
+  <si>
+    <t>VERY NICE hotel, especially for the price.  Since they are new and times are hard they are about half price!  Everything was very nice.  The rooms like new and super clean.  The breakfast area was large and well stocked with all kinds of goodies.  Each encounter with any of the staff was very pleasant.  They went out of their way to help me with whatever I needed.  I will definitely stay here each time I come and will recommend to all my associates, friends and family.  You CANNOT beat this great deal!!  (I also heard other guests commenting on how nice the hotel was for the price at breakfast.)</t>
+  </si>
+  <si>
+    <t>April 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1162,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1194,1751 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>162</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
+        <v>162</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>217</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" t="s">
+        <v>137</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>242</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_522.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_522.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="384">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r584654906-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>55643</t>
+  </si>
+  <si>
+    <t>1728164</t>
+  </si>
+  <si>
+    <t>584654906</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Good Experience</t>
+  </si>
+  <si>
+    <t>We only came here for a couple days waiting on our time to go to a beach house. It was a great experience. Our room was clean, cool, quiet (@the back), and comfortable. The only thing we had a slight issue with was they didn't accept cash payments but that was quickly resolved. Yes we'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>We only came here for a couple days waiting on our time to go to a beach house. It was a great experience. Our room was clean, cool, quiet (@the back), and comfortable. The only thing we had a slight issue with was they didn't accept cash payments but that was quickly resolved. Yes we'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r539703852-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>539703852</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Lipstick on a Pig</t>
+  </si>
+  <si>
+    <t>This Quality Inn would appear to be nice from the outside and the appearance of the lobby.  But upon closer inspection you will notice the gray paint job on the outside of the building is fairly recent.  The room are dank and smell of mildew.  The decor reminds me of some old 60's cheap motel.  Granted I knew this location was an older building due to the door being located on the outside, but I did not expect this level of murder hotel.  Clute, TX is a dump located in a refinery district and as such you get all walks of life staying at these hotels.  i had the lovely luxury of Capt. let blare gangsta rap till mid-night staying right above me.  Do no stay here.  It is cheaper than the rest for a reason.  The door I had to literally kick in after I swiped the key card just to get it to open. I even left the lights on at night to ward off any bugs that may have wanted to crawl out.  When I got to my room my sheets clearly had not been changed.  There were pubes and makeup on the sheets.  I would have said something but it was so late I knew nothing would be done so i just pulled the sheets off and slept on the mattress cover.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This Quality Inn would appear to be nice from the outside and the appearance of the lobby.  But upon closer inspection you will notice the gray paint job on the outside of the building is fairly recent.  The room are dank and smell of mildew.  The decor reminds me of some old 60's cheap motel.  Granted I knew this location was an older building due to the door being located on the outside, but I did not expect this level of murder hotel.  Clute, TX is a dump located in a refinery district and as such you get all walks of life staying at these hotels.  i had the lovely luxury of Capt. let blare gangsta rap till mid-night staying right above me.  Do no stay here.  It is cheaper than the rest for a reason.  The door I had to literally kick in after I swiped the key card just to get it to open. I even left the lights on at night to ward off any bugs that may have wanted to crawl out.  When I got to my room my sheets clearly had not been changed.  There were pubes and makeup on the sheets.  I would have said something but it was so late I knew nothing would be done so i just pulled the sheets off and slept on the mattress cover.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r523132812-Quality_Inn-Clute_Texas.html</t>
   </si>
   <si>
-    <t>55643</t>
-  </si>
-  <si>
-    <t>1728164</t>
-  </si>
-  <si>
     <t>523132812</t>
   </si>
   <si>
@@ -228,9 +282,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded March 22, 2017</t>
   </si>
   <si>
@@ -240,6 +291,60 @@
     <t>Let me start with the fact that the room and staff, not only met but exceeded my expectations. This is a fine establishment. That being said the management needs to have their attitude adjusted. I reserved a room at 5pm the day before arrival, by 2pm the following day plans with my job had changed, so I called to cancel my room. Check was at 3pm so I figured this shouldn't be a problem. I was told by the front desk that I could only cancel with 24hrs notice. So I asked to speak with a manager. The manager (who didn't bother telling me her name, but this occurred on 3/8/17 at around 2pm) proceeded to tell about how this was every hotels policy and there's there's nothing that can be done. I explained that the room was booked less than 24hrs ago and asked if there was anything that could be done to resolve this. I also stated that I've stayed with numerous hotels that willing to forgive the fee if the room is canceled before check in. Then she got snotty stating that she's never heard of such things and all the hotels in this area have the same policy. There were some other words exchanged but it boiled down to, I was stuck paying for a room, and they were willing to lose a pretty frequent customer for a measly $80.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r460210910-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>460210910</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>They don't care😤</t>
+  </si>
+  <si>
+    <t>I am a long time Choice Hotels Awards Member and have stayed at their hotels across the nation for 5+ years.Booked a smoking room a full week ahead of time on the Choice Hotels website and requested first floor.Called first to confirm that they did indeed have smoking rooms on the first floor.Was told yes... " I'll put it in your reservation and make sure you get first floor/smoking.I checked in .... got a non-smoking room on the second floor... "Sorry...we are very busy"So ....why do I bother to be a Choice Rewards Platinum Membe....take the time to call and confirm....politely make my requests online?? The booking of a smoking room was not a request . It was a solid booking confirmed. Stay away....they don't care.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded March 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2017</t>
+  </si>
+  <si>
+    <t>I am a long time Choice Hotels Awards Member and have stayed at their hotels across the nation for 5+ years.Booked a smoking room a full week ahead of time on the Choice Hotels website and requested first floor.Called first to confirm that they did indeed have smoking rooms on the first floor.Was told yes... " I'll put it in your reservation and make sure you get first floor/smoking.I checked in .... got a non-smoking room on the second floor... "Sorry...we are very busy"So ....why do I bother to be a Choice Rewards Platinum Membe....take the time to call and confirm....politely make my requests online?? The booking of a smoking room was not a request . It was a solid booking confirmed. Stay away....they don't care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r440292577-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>440292577</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Great hotel for the money</t>
+  </si>
+  <si>
+    <t>If you are looking for a clean, friendly hotel with a very good price near a major highway (288), this is it.  Hotel is right next to 288 ramp which connects to Houston and other major highways.  Recently renovated, rooms have refridgerator and microwave.  Coffee is 24/7 in lobby and they have a great breakfast including waffles!  The rooms on the road side are a big noisy but we stayed in the back and it was fine.  It has 2 floors and no elevator if that is important to you.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded December 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2016</t>
+  </si>
+  <si>
+    <t>If you are looking for a clean, friendly hotel with a very good price near a major highway (288), this is it.  Hotel is right next to 288 ramp which connects to Houston and other major highways.  Recently renovated, rooms have refridgerator and microwave.  Coffee is 24/7 in lobby and they have a great breakfast including waffles!  The rooms on the road side are a big noisy but we stayed in the back and it was fine.  It has 2 floors and no elevator if that is important to you.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r422169709-Quality_Inn-Clute_Texas.html</t>
   </si>
   <si>
@@ -318,6 +423,48 @@
     <t>Room was ok for the price. Room was quite musty, (Ground Floor).This region is typically a Humid area at the time I visited.  Will get more so in the summer. Services were ok, management was nice. No issues to report.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r367645238-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>367645238</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Contractors Beware</t>
+  </si>
+  <si>
+    <t>Broke into my company van in plain light and under camera.  NO FILM- NO RECORDING-NO MORE ever me staying here.  Management shame on you not having security in this mediocre MOTEL!!  The rooms are 60s...NO SECURITY detail. STAY  AT YOUR OWN RISKMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Broke into my company van in plain light and under camera.  NO FILM- NO RECORDING-NO MORE ever me staying here.  Management shame on you not having security in this mediocre MOTEL!!  The rooms are 60s...NO SECURITY detail. STAY  AT YOUR OWN RISKMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r367593042-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>367593042</t>
+  </si>
+  <si>
+    <t>Clean room, Nice staff</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel in Clute. The hotel was ok, but looked like it was being renovated.  The pool was well maintained, but will be under construction during May. Our door didn't quite go to the bottom, but a towel fixed that problem. The room was clean, beds comfortable, and otherwise ok.  Breakfast offered many options - eggs, sausage, waffles, rolls, bagels, coffee, juices, yogurt, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel in Clute. The hotel was ok, but looked like it was being renovated.  The pool was well maintained, but will be under construction during May. Our door didn't quite go to the bottom, but a towel fixed that problem. The room was clean, beds comfortable, and otherwise ok.  Breakfast offered many options - eggs, sausage, waffles, rolls, bagels, coffee, juices, yogurt, etc.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r366844487-Quality_Inn-Clute_Texas.html</t>
   </si>
   <si>
@@ -331,9 +478,6 @@
   </si>
   <si>
     <t>This hotel is old and smells horrible! My daughter was gaging because of the smell.The walls and light switches were very dirty. The curtains were dirty as well.The towels were dingy and stained. We will never stay here again!</t>
-  </si>
-  <si>
-    <t>April 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r363351387-Quality_Inn-Clute_Texas.html</t>
@@ -391,6 +535,54 @@
 Rooms were much bigger than i expected. There is ample walking space between the foot of the bed and the wall.  The bed was fine.   The pull out sofa was actually in newer condition than what I expected.  When I pulled out the mattress,   there were crumbs still there. That was one negative. Another negative were the old face towels. They were not white but dark off white and worn looking.  One of them had a brown spot.  Really ? Just throw it away.  I didn't mention it to the front which I wish I would and I'm sure they would apologize.  I got a survey via...I would give this a good rating, so 3 and a half stars which is not an a option on tripa.The booking process is easy and you will get an email confirmation right away.  I actually called in to book cause I had several questions and so I just ended up booking w the rep. Her name is kim w.  She was friendly and really listened to our needs.  I had kayaks w me and asked for a room that I can look out and see them. She did just that for us.  We stayed on the back side away from the freeway. At first I thought the front side waa better but one rep  told me it can get noisy.   The front is very brightly lit compared to the other hotels.Rooms were much bigger than i expected. There is ample walking space between the foot of the bed and the wall.  The bed was fine.   The pull out sofa was actually in newer condition than what I expected.  When I pulled out the mattress,   there were crumbs still there. That was one negative. Another negative were the old face towels. They were not white but dark off white and worn looking.  One of them had a brown spot.  Really ? Just throw it away.  I didn't mention it to the front which I wish I would and I'm sure they would apologize.  I got a survey via email after a few days so they do care of our feedback. The toilet was clean but again had several spots in them .. not sure if it's what you b think it is but it was tiny but after a few flushes they were gone.  I wish they cleaned it really well the first time. I did not see any roaches or bugs so that's good.  Breakfast was ok. Actually had hot sausages and egg patties. Looks like made from egg carton but didn't look to o bad.  Basic stuff and waffle maker.   The breakfast lady had on a regular shirt and I would recommend she wear a quality inn logo shirt . Would just be so much more professional. She was very nice though and made sure we had enough to eat. Overall just a few little negatives but the price , service, and room size was great so I would recommend.  Oh their breakfast area was a nice size and they also have a tv room which was nice and roomy. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r342833886-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>342833886</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Don't judge a book by its cover. It is nicer than it looks on the outside.</t>
+  </si>
+  <si>
+    <t>Anyone who knows me know I am VERY PICKY about where I stay. Had to make a quick trip to Clute for a death in the family and chose this Quality Inn for the price and the reviews. The reviews are spot on. This would would have been a five except for the handle on the door was really difficult to work and kept getting stuck and they could get some better towels. Every member of the staff that we interacted with was courteous, enthusiastic and seemed to have real pride in their motel and community. The room (King bed) was bigger than average. It had a very comfortable chair with a great ottoman that I used for hours to work and relax. The room was exceptionally clean and had the following pluses. An extra large under counter refrigerator, a bathroom with a heater and a fan! I don't know about you but a lot of motels do not have a heater (great for when you shower) or a fan. (You know why we value that). I was very happy with that. The towels were disappointing because they were thin and smaller than average. I think they should replace them all. The hot breakfast in the morning was very average and nothing to write home about. It included a waffle machine, though! The breakfast room was a nice size, well lit with natural light and very inviting. We had absolutely...Anyone who knows me know I am VERY PICKY about where I stay. Had to make a quick trip to Clute for a death in the family and chose this Quality Inn for the price and the reviews. The reviews are spot on. This would would have been a five except for the handle on the door was really difficult to work and kept getting stuck and they could get some better towels. Every member of the staff that we interacted with was courteous, enthusiastic and seemed to have real pride in their motel and community. The room (King bed) was bigger than average. It had a very comfortable chair with a great ottoman that I used for hours to work and relax. The room was exceptionally clean and had the following pluses. An extra large under counter refrigerator, a bathroom with a heater and a fan! I don't know about you but a lot of motels do not have a heater (great for when you shower) or a fan. (You know why we value that). I was very happy with that. The towels were disappointing because they were thin and smaller than average. I think they should replace them all. The hot breakfast in the morning was very average and nothing to write home about. It included a waffle machine, though! The breakfast room was a nice size, well lit with natural light and very inviting. We had absolutely no trouble with noise from the highway. We just turned on the wall unit air conditioner and were good to go. The entryway to the motel was also very inviting. Almost forgot: there is a nice, kidney shaped pool outside. I would gladly stay here again.  Not for the same reason, of course.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Anyone who knows me know I am VERY PICKY about where I stay. Had to make a quick trip to Clute for a death in the family and chose this Quality Inn for the price and the reviews. The reviews are spot on. This would would have been a five except for the handle on the door was really difficult to work and kept getting stuck and they could get some better towels. Every member of the staff that we interacted with was courteous, enthusiastic and seemed to have real pride in their motel and community. The room (King bed) was bigger than average. It had a very comfortable chair with a great ottoman that I used for hours to work and relax. The room was exceptionally clean and had the following pluses. An extra large under counter refrigerator, a bathroom with a heater and a fan! I don't know about you but a lot of motels do not have a heater (great for when you shower) or a fan. (You know why we value that). I was very happy with that. The towels were disappointing because they were thin and smaller than average. I think they should replace them all. The hot breakfast in the morning was very average and nothing to write home about. It included a waffle machine, though! The breakfast room was a nice size, well lit with natural light and very inviting. We had absolutely...Anyone who knows me know I am VERY PICKY about where I stay. Had to make a quick trip to Clute for a death in the family and chose this Quality Inn for the price and the reviews. The reviews are spot on. This would would have been a five except for the handle on the door was really difficult to work and kept getting stuck and they could get some better towels. Every member of the staff that we interacted with was courteous, enthusiastic and seemed to have real pride in their motel and community. The room (King bed) was bigger than average. It had a very comfortable chair with a great ottoman that I used for hours to work and relax. The room was exceptionally clean and had the following pluses. An extra large under counter refrigerator, a bathroom with a heater and a fan! I don't know about you but a lot of motels do not have a heater (great for when you shower) or a fan. (You know why we value that). I was very happy with that. The towels were disappointing because they were thin and smaller than average. I think they should replace them all. The hot breakfast in the morning was very average and nothing to write home about. It included a waffle machine, though! The breakfast room was a nice size, well lit with natural light and very inviting. We had absolutely no trouble with noise from the highway. We just turned on the wall unit air conditioner and were good to go. The entryway to the motel was also very inviting. Almost forgot: there is a nice, kidney shaped pool outside. I would gladly stay here again.  Not for the same reason, of course.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r340559108-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>340559108</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>NICE PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>A very nice place to stay.  Staff, Kim W., very friendly and helpful.  Comfortable bed and very clean.  We had a room in front so the highway noise was a bit loud, so I would ask for a room to the back next time.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>A very nice place to stay.  Staff, Kim W., very friendly and helpful.  Comfortable bed and very clean.  We had a room in front so the highway noise was a bit loud, so I would ask for a room to the back next time.  Would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r336631748-Quality_Inn-Clute_Texas.html</t>
   </si>
   <si>
@@ -433,9 +625,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded December 30, 2015</t>
   </si>
   <si>
@@ -463,6 +652,71 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r306511970-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>306511970</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>My over-nighter in Clute</t>
+  </si>
+  <si>
+    <t>I was in the area for a few days doing a dive trip from Freeport and needed a place to stay overnight before flying home the next day.  Reviews for other places nearby were very poor, so I decided on the Quality Inn, one of several motels along the freeway strip in Clute.  
+The staff was very helpful and courteous.  My friend found herself in a smoking room and but was promptly moved to a non smoking room when she went to the main office to request a change.   
+Rooms are basic but clean.  For less than a hundred dollars it was all that was needed.  Despite my room being 'non-smoking' there were visible burn marks on the carpet, but there wasn't any residual odor.  The air conditioner was efficient at keeping the room pleasantly cool.   The room wifi was balky at first, but then seemed to kick in after a few hours, albeit slow.  
+The only disappointing aspect was the breakfast.   It was rather spare, but my friend and I were able to use the waffle iron to make a couple of waffles to at least get us on the road.  The attendant at the breakfast room was very helpful and friendly, especially getting my some hot water for my morning tea.  
+I probably will not be going through this area again, but I would recommend it as a place to crash for the night without spending too much....I was in the area for a few days doing a dive trip from Freeport and needed a place to stay overnight before flying home the next day.  Reviews for other places nearby were very poor, so I decided on the Quality Inn, one of several motels along the freeway strip in Clute.  The staff was very helpful and courteous.  My friend found herself in a smoking room and but was promptly moved to a non smoking room when she went to the main office to request a change.   Rooms are basic but clean.  For less than a hundred dollars it was all that was needed.  Despite my room being 'non-smoking' there were visible burn marks on the carpet, but there wasn't any residual odor.  The air conditioner was efficient at keeping the room pleasantly cool.   The room wifi was balky at first, but then seemed to kick in after a few hours, albeit slow.  The only disappointing aspect was the breakfast.   It was rather spare, but my friend and I were able to use the waffle iron to make a couple of waffles to at least get us on the road.  The attendant at the breakfast room was very helpful and friendly, especially getting my some hot water for my morning tea.  I probably will not be going through this area again, but I would recommend it as a place to crash for the night without spending too much.  There's also a nice family style italian restaurant about a half mile down the street.  (bring your own wine though!)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2015</t>
+  </si>
+  <si>
+    <t>I was in the area for a few days doing a dive trip from Freeport and needed a place to stay overnight before flying home the next day.  Reviews for other places nearby were very poor, so I decided on the Quality Inn, one of several motels along the freeway strip in Clute.  
+The staff was very helpful and courteous.  My friend found herself in a smoking room and but was promptly moved to a non smoking room when she went to the main office to request a change.   
+Rooms are basic but clean.  For less than a hundred dollars it was all that was needed.  Despite my room being 'non-smoking' there were visible burn marks on the carpet, but there wasn't any residual odor.  The air conditioner was efficient at keeping the room pleasantly cool.   The room wifi was balky at first, but then seemed to kick in after a few hours, albeit slow.  
+The only disappointing aspect was the breakfast.   It was rather spare, but my friend and I were able to use the waffle iron to make a couple of waffles to at least get us on the road.  The attendant at the breakfast room was very helpful and friendly, especially getting my some hot water for my morning tea.  
+I probably will not be going through this area again, but I would recommend it as a place to crash for the night without spending too much....I was in the area for a few days doing a dive trip from Freeport and needed a place to stay overnight before flying home the next day.  Reviews for other places nearby were very poor, so I decided on the Quality Inn, one of several motels along the freeway strip in Clute.  The staff was very helpful and courteous.  My friend found herself in a smoking room and but was promptly moved to a non smoking room when she went to the main office to request a change.   Rooms are basic but clean.  For less than a hundred dollars it was all that was needed.  Despite my room being 'non-smoking' there were visible burn marks on the carpet, but there wasn't any residual odor.  The air conditioner was efficient at keeping the room pleasantly cool.   The room wifi was balky at first, but then seemed to kick in after a few hours, albeit slow.  The only disappointing aspect was the breakfast.   It was rather spare, but my friend and I were able to use the waffle iron to make a couple of waffles to at least get us on the road.  The attendant at the breakfast room was very helpful and friendly, especially getting my some hot water for my morning tea.  I probably will not be going through this area again, but I would recommend it as a place to crash for the night without spending too much.  There's also a nice family style italian restaurant about a half mile down the street.  (bring your own wine though!)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r291258210-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>291258210</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service and great staff</t>
+  </si>
+  <si>
+    <t>We headed down to Surfside last weekend and booked at another local hotel.  Let's just say, that didn't work out one bit and after hours of headaches at the other facility we had to resort to going hotel to hotel to find a rate that we could afford.  We had staid at this facility before and gave it a try.  Rhonda greeted us as we walked in and we explained our story and she was so sweet and nice.  She explained that there was only 1 room left, but she did everything she could to get us in that room at an affordable rate.  I want to commend the staff at the Quality Inn in Clute, and especially Rhonda.  The stay was excellent and we encountered no issues over our two nights.  Thank you so much.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>We headed down to Surfside last weekend and booked at another local hotel.  Let's just say, that didn't work out one bit and after hours of headaches at the other facility we had to resort to going hotel to hotel to find a rate that we could afford.  We had staid at this facility before and gave it a try.  Rhonda greeted us as we walked in and we explained our story and she was so sweet and nice.  She explained that there was only 1 room left, but she did everything she could to get us in that room at an affordable rate.  I want to commend the staff at the Quality Inn in Clute, and especially Rhonda.  The stay was excellent and we encountered no issues over our two nights.  Thank you so much.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r287025982-Quality_Inn-Clute_Texas.html</t>
   </si>
   <si>
@@ -478,15 +732,6 @@
     <t>Two summer nights at the Quality Inn in Clute and we were pleased.  Room was clean, breakfast enhanced the value being bountiful; as well as constantly maintained by a friendly staff member, air conditioner was cold, pool was clean, bed was comfortable.  No complaints - I would recommend the Quality Inn in Clute.MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded July 22, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 22, 2015</t>
-  </si>
-  <si>
     <t>Two summer nights at the Quality Inn in Clute and we were pleased.  Room was clean, breakfast enhanced the value being bountiful; as well as constantly maintained by a friendly staff member, air conditioner was cold, pool was clean, bed was comfortable.  No complaints - I would recommend the Quality Inn in Clute.More</t>
   </si>
   <si>
@@ -508,9 +753,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded June 10, 2015</t>
   </si>
   <si>
@@ -544,6 +786,60 @@
     <t>Our room had black mold in the toilet area as well as fecal matter left behind from an apparent overflowed toilet. The room felt damp and soggy and air never got cold. The breakfast was good and the staff very nice. The bed was awful and the comforter had stains on it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r255236831-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>255236831</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Overnight Getaway From Home</t>
+  </si>
+  <si>
+    <t>Enjoyed having my daughter and grandson visit and we stayed here. Very nice room. Even tho a couple of plants/refineries were across the way...we didn't hear the noise in the room. Bed was so comfy and so was the sofabed. Wished the breakfast area had a waffle iron. LOVE waffles. Too cold to enjoy that pool. Price was very good. Even tho I live in the area the tiny house is not enough for anyone to stay in to visit. That is why we stayed at the Inn. Another nice thing is that it is not far from the beach. And yes... it was too cold to go in. In a few months ... it will be very warm. I love the beach here. It's big enough to drive on, have get-togethers, fish, and relax. Places to eat at and the mall are convenient. The people around here are so friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Enjoyed having my daughter and grandson visit and we stayed here. Very nice room. Even tho a couple of plants/refineries were across the way...we didn't hear the noise in the room. Bed was so comfy and so was the sofabed. Wished the breakfast area had a waffle iron. LOVE waffles. Too cold to enjoy that pool. Price was very good. Even tho I live in the area the tiny house is not enough for anyone to stay in to visit. That is why we stayed at the Inn. Another nice thing is that it is not far from the beach. And yes... it was too cold to go in. In a few months ... it will be very warm. I love the beach here. It's big enough to drive on, have get-togethers, fish, and relax. Places to eat at and the mall are convenient. The people around here are so friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r231382112-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>231382112</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Cockroaches</t>
+  </si>
+  <si>
+    <t>When we found the hotel we thought it was closed because it was so dark, got to the room and found cockroaches, after killing 4 and more coming we went back to the desk, clerk gave us a key to look at another room all they had with 2 queen beds was a smoking room, didn't know that until we opened door and immediately closed it, they gave us keys to look at 3 more rooms took the cleanest of the 3 but one queen bed and one sofa sleeper which wasn't made. Finally got a hold of manager after a few snippy remarks she came and made the bed up. Unless you are a child or a very thin adult don't sleep on the sofa sleeper. I did check for bed beds after I slept on it but had none. Traffic is loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Quality Inn, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>When we found the hotel we thought it was closed because it was so dark, got to the room and found cockroaches, after killing 4 and more coming we went back to the desk, clerk gave us a key to look at another room all they had with 2 queen beds was a smoking room, didn't know that until we opened door and immediately closed it, they gave us keys to look at 3 more rooms took the cleanest of the 3 but one queen bed and one sofa sleeper which wasn't made. Finally got a hold of manager after a few snippy remarks she came and made the bed up. Unless you are a child or a very thin adult don't sleep on the sofa sleeper. I did check for bed beds after I slept on it but had none. Traffic is loud.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r192711692-Quality_Inn-Clute_Texas.html</t>
   </si>
   <si>
@@ -619,6 +915,49 @@
     <t>During a recent stay at this hotel, I received about 50 bedbug bites. Showed bites to desk clerk, who stated that manager was not available, but that he would call me. He did not call. Even after receiving a diagnosis confirmation from my M.D., manager refused refund, stating that it could not have happened in his hotel. (His hotel was the only place I stayed.)  The manager has been unprofessional and untruthful.  I won't ever stay in another Quality Inn.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r178309672-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>178309672</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Good value-priced hotel</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on a Saturday night while visiting relatives in the area.  We booked a room in advance on the AAA rate for about $75 (including tax).  If we had waited until after the cancellation cutoff time (4PM on the day before arrival) we could have saved another nine dollars.
+Our room was a king, nonsmoking.  We requested and received a room on the back side of the hotel.  All was quiet and we both enjoyed a very good sleep.  The room had fairly new carpeting and was spotless; the fixtures appeared to be nearly new as well.  The bed was comfortable.  My only complaint/concern: there was absolutely no handhold in the tub, nor any kind of soap dish available.  I have reached that demographic group where I prefer the comfort and safety of a handhold getting into and out of the shower. 
+The breakfast was without surprise.  The only hot items available were some sausage patties and some sort of egg 'disk' that I presume is designed to be used in fast food breakfast sandwiches.  We would have liked to have biscuits and gravy offered (which I presume would be not much more work) but...no.   While we had no problem finding enough to eat, I did notice, when I returned for a coffee refill that all of the sausage, eggs and bagels had been consumed and not replenished.  There appeared to be only one person...My wife and I stayed here on a Saturday night while visiting relatives in the area.  We booked a room in advance on the AAA rate for about $75 (including tax).  If we had waited until after the cancellation cutoff time (4PM on the day before arrival) we could have saved another nine dollars.Our room was a king, nonsmoking.  We requested and received a room on the back side of the hotel.  All was quiet and we both enjoyed a very good sleep.  The room had fairly new carpeting and was spotless; the fixtures appeared to be nearly new as well.  The bed was comfortable.  My only complaint/concern: there was absolutely no handhold in the tub, nor any kind of soap dish available.  I have reached that demographic group where I prefer the comfort and safety of a handhold getting into and out of the shower. The breakfast was without surprise.  The only hot items available were some sausage patties and some sort of egg 'disk' that I presume is designed to be used in fast food breakfast sandwiches.  We would have liked to have biscuits and gravy offered (which I presume would be not much more work) but...no.   While we had no problem finding enough to eat, I did notice, when I returned for a coffee refill that all of the sausage, eggs and bagels had been consumed and not replenished.  There appeared to be only one person to handle the front desk and restocking the breakfast area; this could use some management attention (perhaps someone from the housekeeping staff could be trained to help?).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on a Saturday night while visiting relatives in the area.  We booked a room in advance on the AAA rate for about $75 (including tax).  If we had waited until after the cancellation cutoff time (4PM on the day before arrival) we could have saved another nine dollars.
+Our room was a king, nonsmoking.  We requested and received a room on the back side of the hotel.  All was quiet and we both enjoyed a very good sleep.  The room had fairly new carpeting and was spotless; the fixtures appeared to be nearly new as well.  The bed was comfortable.  My only complaint/concern: there was absolutely no handhold in the tub, nor any kind of soap dish available.  I have reached that demographic group where I prefer the comfort and safety of a handhold getting into and out of the shower. 
+The breakfast was without surprise.  The only hot items available were some sausage patties and some sort of egg 'disk' that I presume is designed to be used in fast food breakfast sandwiches.  We would have liked to have biscuits and gravy offered (which I presume would be not much more work) but...no.   While we had no problem finding enough to eat, I did notice, when I returned for a coffee refill that all of the sausage, eggs and bagels had been consumed and not replenished.  There appeared to be only one person...My wife and I stayed here on a Saturday night while visiting relatives in the area.  We booked a room in advance on the AAA rate for about $75 (including tax).  If we had waited until after the cancellation cutoff time (4PM on the day before arrival) we could have saved another nine dollars.Our room was a king, nonsmoking.  We requested and received a room on the back side of the hotel.  All was quiet and we both enjoyed a very good sleep.  The room had fairly new carpeting and was spotless; the fixtures appeared to be nearly new as well.  The bed was comfortable.  My only complaint/concern: there was absolutely no handhold in the tub, nor any kind of soap dish available.  I have reached that demographic group where I prefer the comfort and safety of a handhold getting into and out of the shower. The breakfast was without surprise.  The only hot items available were some sausage patties and some sort of egg 'disk' that I presume is designed to be used in fast food breakfast sandwiches.  We would have liked to have biscuits and gravy offered (which I presume would be not much more work) but...no.   While we had no problem finding enough to eat, I did notice, when I returned for a coffee refill that all of the sausage, eggs and bagels had been consumed and not replenished.  There appeared to be only one person to handle the front desk and restocking the breakfast area; this could use some management attention (perhaps someone from the housekeeping staff could be trained to help?).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r163627974-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>163627974</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Perfect hotel for a stay after beach day. The room was clean, large, and newly remodeled. The refrigerator and microwave was a great addition. The bed was very comfortable. The pool was very clean, and behind the hotel, so it wasn't visible from the main highway. The only complaint that we had was the breakfast ould've been more hot items, and less continental, but otherwise it was a great stay.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r152487288-Quality_Inn-Clute_Texas.html</t>
   </si>
   <si>
@@ -674,6 +1013,45 @@
   </si>
   <si>
     <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r124323421-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>124323421</t>
+  </si>
+  <si>
+    <t>02/08/2012</t>
+  </si>
+  <si>
+    <t>Solid property for reasonable price</t>
+  </si>
+  <si>
+    <t>Stayed here for one night during the week.  Room was good size - included mircowave and mini-fridge.  Newer television - free wi-fi.  Room was clean - staff was friendly.  Nice variety of pillows.    Good solid room - very reasonable price.  Hotel was crowded with workers but noise was not a problem.  Would stay here again. This location would be a nice low-cost option to Galveston and is approximately halfway between Galveston and Houston.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r123020793-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>123020793</t>
+  </si>
+  <si>
+    <t>01/13/2012</t>
+  </si>
+  <si>
+    <t>Very Adequate Accomodations</t>
+  </si>
+  <si>
+    <t>This motel seemed to be rated about as high as any of the moderately priced motels in the Clute / Freeport / Lake Jackson area so we stayed.  Price charged was about 20% less than shown on internet but we were there mid-week in mid-January and not many folks staying at all the motels in this area.  We found the room very adequate and clean.  Our only complaint was that there was no wifi service that night which I understand is not normal.  The night clerk was obviously not well versed in helping to get the wifi service back on.  The continental breakfast which includes eggs and sausage was quite adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>This motel seemed to be rated about as high as any of the moderately priced motels in the Clute / Freeport / Lake Jackson area so we stayed.  Price charged was about 20% less than shown on internet but we were there mid-week in mid-January and not many folks staying at all the motels in this area.  We found the room very adequate and clean.  Our only complaint was that there was no wifi service that night which I understand is not normal.  The night clerk was obviously not well versed in helping to get the wifi service back on.  The continental breakfast which includes eggs and sausage was quite adequate.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r120384447-Quality_Inn-Clute_Texas.html</t>
@@ -735,6 +1113,54 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r69747379-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>69747379</t>
+  </si>
+  <si>
+    <t>07/05/2010</t>
+  </si>
+  <si>
+    <t>They are trying</t>
+  </si>
+  <si>
+    <t>I was a little disappointed because they seemed unable to properly program the key card.   However, I must say,  after  my third visit to the front desk,  the maintenence man arrived at my room and corrected the problem.   Also, the diverter in the tub/shower was corroded to the point that you could not get the shower to work.    Oh yeah,  and the smoke alarm chirped for need of a battery.   I disconnected it and left it in my car overnight.   But,  having said all that,   the place was quiet  (sans chirping),  clean,  and comfortable.   The breakfast was OK and the wifi worked well.   I did not expect it to be perfect and they appear to be trying to make the hotel as good as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>I was a little disappointed because they seemed unable to properly program the key card.   However, I must say,  after  my third visit to the front desk,  the maintenence man arrived at my room and corrected the problem.   Also, the diverter in the tub/shower was corroded to the point that you could not get the shower to work.    Oh yeah,  and the smoke alarm chirped for need of a battery.   I disconnected it and left it in my car overnight.   But,  having said all that,   the place was quiet  (sans chirping),  clean,  and comfortable.   The breakfast was OK and the wifi worked well.   I did not expect it to be perfect and they appear to be trying to make the hotel as good as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r66036428-Quality_Inn-Clute_Texas.html</t>
+  </si>
+  <si>
+    <t>66036428</t>
+  </si>
+  <si>
+    <t>06/01/2010</t>
+  </si>
+  <si>
+    <t>Spiders, trash, and filth</t>
+  </si>
+  <si>
+    <t>We booked a Holiday Inn Express on Hotwire but somehow their website had an error on the address so it booked us at the 'Quality' Inn instead.  So we headed down the road expecting a comparable hotel. In no way, other than sharing the word 'Inn', was it comparable.
+It was unbelievable, in a very very bad way. At the doorstep, the smell of hot decomposing trash was overwhelming. I looked around and couldn't see a dumpster anywhere, because that's what it smelled like, but I couldn't figure out where it was coming from. Every time we opened the door to the room, a big cloud of dumpster-smell air wafted in though. Lovely. The room was dark, musty (air conditioning was unplugged), and dirty.  It had been 'cleaned' but everything was so old there was no way to get the years of grime out. The carpet was a dark teal color and so filthly I refused to take my choes off. 
+My son was asleep, so we decided to let him finish his nap and then decide if we would brave the night When he woke up two hours later we already had the car packed. My husband saw a huge brown spider on the side of the TV.  Alas, it got away before he could kill it. That was enough for me. 
+As it turns out, the spider, or perhaps a friend of his, had crawled into my purse...We booked a Holiday Inn Express on Hotwire but somehow their website had an error on the address so it booked us at the 'Quality' Inn instead.  So we headed down the road expecting a comparable hotel. In no way, other than sharing the word 'Inn', was it comparable.It was unbelievable, in a very very bad way. At the doorstep, the smell of hot decomposing trash was overwhelming. I looked around and couldn't see a dumpster anywhere, because that's what it smelled like, but I couldn't figure out where it was coming from. Every time we opened the door to the room, a big cloud of dumpster-smell air wafted in though. Lovely. The room was dark, musty (air conditioning was unplugged), and dirty.  It had been 'cleaned' but everything was so old there was no way to get the years of grime out. The carpet was a dark teal color and so filthly I refused to take my choes off. My son was asleep, so we decided to let him finish his nap and then decide if we would brave the night When he woke up two hours later we already had the car packed. My husband saw a huge brown spider on the side of the TV.  Alas, it got away before he could kill it. That was enough for me. As it turns out, the spider, or perhaps a friend of his, had crawled into my purse for the ride home with us. I found it on my arm about 10 minutes from the hotel. Half an hour of my husband frantically chasing it around the car later and finally catching it, we finally got back on the road.This was undoubtedly the worst hotel experience I have had.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>We booked a Holiday Inn Express on Hotwire but somehow their website had an error on the address so it booked us at the 'Quality' Inn instead.  So we headed down the road expecting a comparable hotel. In no way, other than sharing the word 'Inn', was it comparable.
+It was unbelievable, in a very very bad way. At the doorstep, the smell of hot decomposing trash was overwhelming. I looked around and couldn't see a dumpster anywhere, because that's what it smelled like, but I couldn't figure out where it was coming from. Every time we opened the door to the room, a big cloud of dumpster-smell air wafted in though. Lovely. The room was dark, musty (air conditioning was unplugged), and dirty.  It had been 'cleaned' but everything was so old there was no way to get the years of grime out. The carpet was a dark teal color and so filthly I refused to take my choes off. 
+My son was asleep, so we decided to let him finish his nap and then decide if we would brave the night When he woke up two hours later we already had the car packed. My husband saw a huge brown spider on the side of the TV.  Alas, it got away before he could kill it. That was enough for me. 
+As it turns out, the spider, or perhaps a friend of his, had crawled into my purse...We booked a Holiday Inn Express on Hotwire but somehow their website had an error on the address so it booked us at the 'Quality' Inn instead.  So we headed down the road expecting a comparable hotel. In no way, other than sharing the word 'Inn', was it comparable.It was unbelievable, in a very very bad way. At the doorstep, the smell of hot decomposing trash was overwhelming. I looked around and couldn't see a dumpster anywhere, because that's what it smelled like, but I couldn't figure out where it was coming from. Every time we opened the door to the room, a big cloud of dumpster-smell air wafted in though. Lovely. The room was dark, musty (air conditioning was unplugged), and dirty.  It had been 'cleaned' but everything was so old there was no way to get the years of grime out. The carpet was a dark teal color and so filthly I refused to take my choes off. My son was asleep, so we decided to let him finish his nap and then decide if we would brave the night When he woke up two hours later we already had the car packed. My husband saw a huge brown spider on the side of the TV.  Alas, it got away before he could kill it. That was enough for me. As it turns out, the spider, or perhaps a friend of his, had crawled into my purse for the ride home with us. I found it on my arm about 10 minutes from the hotel. Half an hour of my husband frantically chasing it around the car later and finally catching it, we finally got back on the road.This was undoubtedly the worst hotel experience I have had.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r64445532-Quality_Inn-Clute_Texas.html</t>
   </si>
   <si>
@@ -748,9 +1174,6 @@
   </si>
   <si>
     <t>Newly remodeled.  Everything perfect.  Excellent pillow top mattress.   Good TV, Hot water, clean crisp sheets.  Friendly staff.  I come to this city once a year and this will be my first choice from now on.   King bed room at senior Rate was only $58.00.</t>
-  </si>
-  <si>
-    <t>May 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55643-d1728164-r60991984-Quality_Inn-Clute_Texas.html</t>
@@ -1303,7 +1726,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1320,10 +1743,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1339,7 +1766,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1348,49 +1775,43 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1406,7 +1827,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1415,25 +1836,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1444,14 +1865,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1467,7 +1884,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1476,49 +1893,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>70</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
         <v>4</v>
       </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
         <v>80</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>81</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1534,7 +1951,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1543,49 +1960,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
         <v>89</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>90</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -1601,7 +2012,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1610,32 +2021,38 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
         <v>93</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>95</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>96</v>
       </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1683,27 +2100,35 @@
         <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
         <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -1719,7 +2144,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1728,47 +2153,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -1784,7 +2211,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1793,43 +2220,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
         <v>3</v>
       </c>
-      <c r="N10" t="s">
-        <v>119</v>
-      </c>
-      <c r="O10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -1845,7 +2278,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1854,25 +2287,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1884,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
@@ -1906,7 +2339,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1915,43 +2348,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -1967,7 +2406,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1976,10 +2415,10 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
         <v>144</v>
@@ -1990,12 +2429,8 @@
       <c r="M13" t="n">
         <v>3</v>
       </c>
-      <c r="N13" t="s">
-        <v>146</v>
-      </c>
-      <c r="O13" t="s">
-        <v>137</v>
-      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2005,10 +2440,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -2024,7 +2463,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2033,47 +2472,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
         <v>153</v>
-      </c>
-      <c r="X14" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -2089,7 +2520,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2098,49 +2529,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
         <v>157</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>158</v>
       </c>
-      <c r="K15" t="s">
-        <v>159</v>
-      </c>
-      <c r="L15" t="s">
-        <v>160</v>
-      </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -2156,7 +2585,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2165,22 +2594,26 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
         <v>167</v>
       </c>
-      <c r="J16" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2191,13 +2624,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -2213,7 +2646,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2222,53 +2655,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
         <v>175</v>
       </c>
-      <c r="J17" t="s">
-        <v>176</v>
-      </c>
-      <c r="K17" t="s">
-        <v>177</v>
-      </c>
-      <c r="L17" t="s">
-        <v>178</v>
-      </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
         <v>5</v>
       </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -2284,7 +2711,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2293,49 +2720,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>162</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -2351,7 +2778,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2360,53 +2787,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
         <v>191</v>
       </c>
-      <c r="J19" t="s">
-        <v>192</v>
-      </c>
-      <c r="K19" t="s">
-        <v>193</v>
-      </c>
-      <c r="L19" t="s">
-        <v>194</v>
-      </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
@@ -2422,7 +2839,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2431,47 +2848,41 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>200</v>
       </c>
-      <c r="J20" t="s">
-        <v>201</v>
-      </c>
-      <c r="K20" t="s">
-        <v>202</v>
-      </c>
-      <c r="L20" t="s">
-        <v>203</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>204</v>
-      </c>
       <c r="O20" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
       <c r="Y20" t="s">
         <v>203</v>
       </c>
@@ -2489,7 +2900,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2498,49 +2909,39 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
         <v>206</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>207</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>208</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
         <v>209</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>210</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
@@ -2556,7 +2957,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2565,49 +2966,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
         <v>213</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>214</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>215</v>
       </c>
-      <c r="L22" t="s">
+      <c r="O22" t="s">
         <v>216</v>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>217</v>
-      </c>
-      <c r="O22" t="s">
-        <v>60</v>
-      </c>
       <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>217</v>
+      </c>
+      <c r="X22" t="s">
+        <v>218</v>
+      </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -2623,7 +3024,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2632,49 +3033,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
       <c r="Y23" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
@@ -2690,7 +3089,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2699,49 +3098,47 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
         <v>225</v>
       </c>
-      <c r="J24" t="s">
-        <v>226</v>
-      </c>
-      <c r="K24" t="s">
-        <v>227</v>
-      </c>
-      <c r="L24" t="s">
-        <v>228</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>229</v>
-      </c>
       <c r="O24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
       <c r="Y24" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
@@ -2757,7 +3154,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2766,45 +3163,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
       </c>
-      <c r="Q25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
@@ -2820,7 +3221,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2829,49 +3230,39 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>242</v>
-      </c>
-      <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
@@ -2887,7 +3278,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2896,38 +3287,34 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
         <v>5</v>
       </c>
       <c r="R27" t="n">
         <v>5</v>
       </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -2935,10 +3322,1212 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" t="s">
+        <v>259</v>
+      </c>
       <c r="Y27" t="s">
-        <v>247</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>275</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>216</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>291</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>292</v>
+      </c>
+      <c r="X31" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s">
+        <v>312</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>313</v>
+      </c>
+      <c r="O34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>314</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>315</v>
+      </c>
+      <c r="J35" t="s">
+        <v>316</v>
+      </c>
+      <c r="K35" t="s">
+        <v>317</v>
+      </c>
+      <c r="L35" t="s">
+        <v>318</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>319</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" t="s">
+        <v>324</v>
+      </c>
+      <c r="L36" t="s">
+        <v>325</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>326</v>
+      </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" t="s">
+        <v>330</v>
+      </c>
+      <c r="L37" t="s">
+        <v>331</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>332</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s">
+        <v>336</v>
+      </c>
+      <c r="L38" t="s">
+        <v>337</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>338</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>341</v>
+      </c>
+      <c r="J39" t="s">
+        <v>342</v>
+      </c>
+      <c r="K39" t="s">
+        <v>343</v>
+      </c>
+      <c r="L39" t="s">
+        <v>344</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>345</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>347</v>
+      </c>
+      <c r="J40" t="s">
+        <v>348</v>
+      </c>
+      <c r="K40" t="s">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s">
+        <v>350</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>351</v>
+      </c>
+      <c r="O40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>353</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" t="s">
+        <v>355</v>
+      </c>
+      <c r="K41" t="s">
+        <v>356</v>
+      </c>
+      <c r="L41" t="s">
+        <v>357</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>358</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>359</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>360</v>
+      </c>
+      <c r="J42" t="s">
+        <v>361</v>
+      </c>
+      <c r="K42" t="s">
+        <v>362</v>
+      </c>
+      <c r="L42" t="s">
+        <v>363</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>364</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" t="s">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>371</v>
+      </c>
+      <c r="O43" t="s">
+        <v>78</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>374</v>
+      </c>
+      <c r="J44" t="s">
+        <v>375</v>
+      </c>
+      <c r="K44" t="s">
+        <v>376</v>
+      </c>
+      <c r="L44" t="s">
+        <v>377</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>371</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31207</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>378</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>379</v>
+      </c>
+      <c r="J45" t="s">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s">
+        <v>381</v>
+      </c>
+      <c r="L45" t="s">
+        <v>382</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>383</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
